--- a/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v7.xlsx
+++ b/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1409,7 +1409,6 @@
         <family val="2"/>
         <color rgb="FF000000"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -1489,13 +1488,13 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="58.914979757085"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="59.3441295546559"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.1376518218623"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="39.9554655870445"/>
     <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.89068825910931"/>
   </cols>
   <sheetData>
@@ -2334,38 +2333,38 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.3441295546559"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.2429149797571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.4574898785425"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57085020242915"/>
   </cols>
@@ -2622,15 +2621,15 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.9554655870445"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57085020242915"/>
   </cols>
@@ -2756,18 +2755,18 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.7044534412956"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.0202429149798"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1336032388664"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.4939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.5546558704453"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -2895,68 +2894,68 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="48.8461538461539"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="63" min="63" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="64" min="64" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="1025" min="65" style="0" width="8.57085020242915"/>
   </cols>
@@ -3322,22 +3321,22 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="64.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="65.4493927125506"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
@@ -3475,23 +3474,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="94.9068825910931"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.3157894736842"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="95.7651821862348"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5303643724696"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -3649,23 +3648,23 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="72.5182186234818"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="73.1619433198381"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.5263157894737"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
@@ -3802,17 +3801,17 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.2348178137652"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.8785425101215"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.1376518218623"/>
     <col collapsed="false" hidden="false" max="10" min="8" style="0" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.0323886639676"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="6.31983805668016"/>
@@ -3913,7 +3912,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="15" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -4264,27 +4263,27 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.8542510121457"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1255060728745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0647773279352"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.7692307692308"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.17004048583"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.9271255060729"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="20" min="20" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="86.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="87.6234817813765"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,20 +4548,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.914979757085"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.7732793522267"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.3441295546559"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.2024291497976"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="25.7085020242915"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="7.49797570850202"/>
@@ -4678,37 +4677,37 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="89.336032388664"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.2064777327935"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="35.6720647773279"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="34.919028340081"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="25.0647773279352"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="5" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="5" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="5" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="5" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="5" width="35.9919028340081"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="5" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="5" width="25.2793522267206"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="5" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="25.8137651821862"/>
     <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5416,32 +5415,32 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0688259109312"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="21.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.0647773279352"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="36.3117408906883"/>
-    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="35.2429149797571"/>
-    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="36.6356275303644"/>
+    <col collapsed="false" hidden="false" max="24" min="18" style="0" width="35.4574898785425"/>
+    <col collapsed="false" hidden="false" max="26" min="25" style="0" width="17.6761133603239"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="7.49797570850202"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="1025" min="29" style="0" width="8.57085020242915"/>
@@ -9185,8 +9184,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9311,55 +9310,55 @@
   <dimension ref="A1:AZ8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.3846153846154"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.1376518218623"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.0242914979757"/>
-    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="37.5991902834008"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="27" min="25" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4534412955466"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="27" min="25" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="45" min="45" style="0" width="7.49797570850202"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="49" min="49" style="0" width="6.10526315789474"/>
     <col collapsed="false" hidden="false" max="50" min="50" style="0" width="5.67611336032389"/>
     <col collapsed="false" hidden="false" max="51" min="51" style="0" width="6.31983805668016"/>
@@ -9719,17 +9718,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!D4,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>23</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="0" t="str">
         <f aca="false">IFERROR(INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!C4,'KPI Summary'!$D$2:$D$35,0),1),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>60</v>
@@ -9804,17 +9803,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!D5,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="0" t="str">
         <f aca="false">IFERROR(INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!C5,'KPI Summary'!$D$2:$D$35,0),1),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="C5" s="3" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>63</v>
@@ -9895,17 +9894,17 @@
         <v>179</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="105" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="95.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!D6,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>26</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="0" t="str">
         <f aca="false">IFERROR(INDEX('KPI Summary'!$A$2:$A$35,MATCH('Max Block Adjacency'!C6,'KPI Summary'!$D$2:$D$35,0),1),"")</f>
-        <v>22</v>
+        <v/>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>69</v>
@@ -11740,51 +11739,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.497975708502"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.3481781376518"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.2793522267206"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="52.8097165991903"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="19.7085020242915"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="15.5303643724696"/>
     <col collapsed="false" hidden="false" max="1025" min="47" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12114,74 +12113,74 @@
   </sheetPr>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AA1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.417004048583"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.7692307692308"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.8502024291498"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.1740890688259"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.1740890688259"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="46.8097165991903"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.6032388663968"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.0323886639676"/>
-    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="18.9595141700405"/>
-    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="46.7044534412956"/>
-    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="45.5263157894737"/>
-    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.5627530364373"/>
-    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.9514170040486"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="75.4129554655871"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.0647773279352"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="28.3846153846154"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="47.1336032388664"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="19.7085020242915"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="33" min="33" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="35" min="35" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="36" min="36" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="37" min="37" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="38" min="38" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="39" min="39" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="40" min="40" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="41" min="41" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="42" min="42" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="43" min="43" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="44" min="44" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="45" min="45" style="0" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="46" min="46" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="47" min="47" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="48" min="48" style="0" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="49" min="49" style="0" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="50" min="50" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="51" min="51" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="52" min="52" style="0" width="29.1376518218623"/>
+    <col collapsed="false" hidden="false" max="53" min="53" style="0" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="54" min="54" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="55" min="55" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="56" min="56" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="57" min="57" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="58" min="58" style="0" width="47.0242914979757"/>
+    <col collapsed="false" hidden="false" max="59" min="59" style="0" width="45.9554655870445"/>
+    <col collapsed="false" hidden="false" max="60" min="60" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="61" min="61" style="0" width="35.0283400809717"/>
+    <col collapsed="false" hidden="false" max="62" min="62" style="0" width="17.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="63" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -12376,17 +12375,17 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="68.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!D2,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>25</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="0" t="e">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!C2,'KPI Summary'!$D$2:$D$35,0),1)</f>
-        <v>22</v>
+        <v>#N/A</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>57</v>
+        <v>184</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>65</v>

--- a/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v7.xlsx
+++ b/Projects/HENKELUS/Data/KPI Template - Working 5-11-2020 v7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="KPI Summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -1403,12 +1403,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <color rgb="FF000000"/>
-      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -2333,7 +2328,7 @@
   </sheetPr>
   <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -4677,8 +4672,8 @@
   </sheetPr>
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5415,10 +5410,10 @@
   </sheetPr>
   <dimension ref="A1:AB17"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9309,8 +9304,8 @@
   </sheetPr>
   <dimension ref="A1:AZ8"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AF10" activeCellId="0" sqref="AF10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11732,7 +11727,7 @@
   </sheetPr>
   <dimension ref="A1:AT2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -12113,8 +12108,8 @@
   </sheetPr>
   <dimension ref="A1:BK4"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12385,7 +12380,7 @@
         <v>#N/A</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>65</v>
@@ -12498,11 +12493,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">INDEX('KPI Summary'!$A$2:$A$35,MATCH('Block Sequence'!D3,'KPI Summary'!$D$2:$D$35,0),1)</f>
         <v>33</v>
       </c>
+      <c r="C3" s="3"/>
       <c r="D3" s="0" t="s">
         <v>84</v>
       </c>
